--- a/users.xlsx
+++ b/users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python Project\TbGamma\Tb_Method_2025\homwork_2025_Qiu\HW6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0D25E5-451B-4E3F-80D8-E7F51F599E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFA55F4-923C-4BD8-81BB-3CE9ACD9F986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15690" yWindow="1740" windowWidth="12030" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -483,65 +483,65 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>2025210025</v>
+        <v>2025310025</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>2025210025</v>
+        <v>2025310025</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>2025210026</v>
+        <v>2025310026</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>2025210026</v>
+        <v>2025310026</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>2025210029</v>
+        <v>2025310029</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>2025210029</v>
+        <v>2025310029</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>2025210030</v>
+        <v>2025310030</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>2025210030</v>
+        <v>2025310030</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>2025210032</v>
+        <v>2025310032</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>2025210032</v>
+        <v>2025310032</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>2025210033</v>
+        <v>2025310033</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>2025210033</v>
+        <v>2025310033</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>2025210034</v>
+        <v>2025310034</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>2025210034</v>
+        <v>2025310034</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
